--- a/document/仕様・設計書/ファイルシステム/_挿入オブジェクト保存用/開発を効率化するためのファイルシステム/開発を効率化するためのファイルシステムアーカイブファイル構造01.xlsx
+++ b/document/仕様・設計書/ファイルシステム/_挿入オブジェクト保存用/開発を効率化するためのファイルシステム/開発を効率化するためのファイルシステムアーカイブファイル構造01.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\GitHub\public\document\仕様・設計書\ファイルシステム\_挿入オブジェクト保存用\開発を効率化するためのファイルシステム\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27855" windowHeight="12855"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>ファイル数</t>
     <rPh sb="4" eb="5">
@@ -125,32 +130,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">(4 + 4 * </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="4" tint="0.59999389629810485"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>02：ファイルリスト部（通称ヘッダー部）</t>
     <rPh sb="10" eb="11">
       <t>ブ</t>
@@ -160,6 +139,51 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4 + 20 * n)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル拡張子CRC</t>
+    <rPh sb="4" eb="7">
+      <t>カクチョウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ての文字を小文字化し、最も長い拡張子が扱われる。例えば、file.ext.more なら .ext.more が拡張子。</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>カクチョウシ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>カクチョウシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -168,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,13 +278,6 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1083,7 +1100,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1098,7 +1115,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -1155,71 +1172,88 @@
       <c r="B5" s="27"/>
       <c r="C5" s="28"/>
       <c r="D5" s="12" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" s="14">
         <v>4</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A6" s="41"/>
       <c r="B6" s="27"/>
       <c r="C6" s="28"/>
       <c r="D6" s="12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A7" s="41"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="29"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="14">
-        <v>2</v>
-      </c>
-      <c r="G7" s="15"/>
+        <v>4</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A8" s="41"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14">
+        <v>4</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A9" s="41"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
     </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="40"/>
+    <row r="10" spans="1:7" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="42"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
